--- a/Proyecto Interno/var-ipc/XYZ_Correlativa-ENPH-IPC-2008.xlsx
+++ b/Proyecto Interno/var-ipc/XYZ_Correlativa-ENPH-IPC-2008.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/var-ipc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{48B7BC91-5B34-434B-96BB-71AC3EF2D40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F1ABFD-2DA6-4C74-8ED1-05D0D85F239F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{48B7BC91-5B34-434B-96BB-71AC3EF2D40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DDD2EC5-60B2-48E9-B067-5F8CE86F78F9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2970,19 +2970,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2990,15 +2999,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4521,6 +4521,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4810,8 +4814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F370" sqref="F370"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4895,10 +4900,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>778</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="15">
@@ -4910,8 +4915,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="F4" s="38"/>
       <c r="H4" s="15">
         <v>12</v>
       </c>
@@ -4921,10 +4926,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="35"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="14"/>
       <c r="D5" s="6"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="38"/>
       <c r="H5" s="15">
         <v>13</v>
       </c>
@@ -4934,10 +4939,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="35"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="14"/>
       <c r="D6" s="6"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="38"/>
       <c r="H6" s="15">
         <v>14</v>
       </c>
@@ -4947,10 +4952,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="14"/>
       <c r="D7" s="6"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="38"/>
       <c r="H7" s="15">
         <v>15</v>
       </c>
@@ -4960,10 +4965,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="14"/>
       <c r="D8" s="6"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="38"/>
       <c r="H8" s="15">
         <v>16</v>
       </c>
@@ -4973,10 +4978,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="35"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="14"/>
       <c r="D9" s="6"/>
-      <c r="F9" s="36"/>
+      <c r="F9" s="38"/>
       <c r="H9" s="15">
         <v>17</v>
       </c>
@@ -4986,10 +4991,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="14"/>
       <c r="D10" s="6"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="38"/>
       <c r="H10" s="15">
         <v>18</v>
       </c>
@@ -5010,11 +5015,11 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="15"/>
@@ -5026,9 +5031,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="35"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="6"/>
-      <c r="F13" s="36"/>
+      <c r="F13" s="38"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15">
         <v>112</v>
@@ -5217,11 +5222,11 @@
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="41" t="s">
         <v>722</v>
       </c>
       <c r="E24" s="31"/>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="40" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="33"/>
@@ -5239,9 +5244,9 @@
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D25" s="44"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="31"/>
-      <c r="F25" s="43"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="33"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
@@ -5297,22 +5302,22 @@
       <c r="F28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="41" t="s">
         <v>723</v>
       </c>
       <c r="E29" s="31"/>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="40" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="33"/>
@@ -5330,9 +5335,9 @@
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D30" s="44"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="31"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="33"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
@@ -5354,15 +5359,15 @@
       <c r="F31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E32" s="14" t="s">
@@ -5388,15 +5393,15 @@
       <c r="F33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E34" s="14" t="s">
@@ -5504,11 +5509,11 @@
       </c>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="41" t="s">
         <v>725</v>
       </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="40" t="s">
         <v>63</v>
       </c>
       <c r="G40" s="33"/>
@@ -5526,9 +5531,9 @@
       </c>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D41" s="44"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="31"/>
-      <c r="F41" s="43"/>
+      <c r="F41" s="40"/>
       <c r="G41" s="33"/>
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
@@ -5542,9 +5547,9 @@
       </c>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D42" s="44"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="31"/>
-      <c r="F42" s="43"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="33"/>
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
@@ -5583,15 +5588,15 @@
       <c r="F44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
@@ -5600,15 +5605,15 @@
       <c r="F45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="14" t="s">
@@ -5651,15 +5656,15 @@
       <c r="F48" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
     </row>
     <row r="49" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
@@ -5668,15 +5673,15 @@
       <c r="F49" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
@@ -5702,15 +5707,15 @@
       <c r="F51" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E52" s="14" t="s">
@@ -5719,15 +5724,15 @@
       <c r="F52" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
     </row>
     <row r="53" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E53" s="14" t="s">
@@ -5736,15 +5741,15 @@
       <c r="F53" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
     </row>
     <row r="54" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E54" s="14" t="s">
@@ -5753,15 +5758,15 @@
       <c r="F54" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D55" s="14" t="s">
@@ -5841,22 +5846,22 @@
       <c r="F59" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="39" t="s">
         <v>104</v>
       </c>
       <c r="D60" s="6"/>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="38" t="s">
         <v>105</v>
       </c>
       <c r="H60" s="15"/>
@@ -5870,9 +5875,9 @@
       </c>
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C61" s="35"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="6"/>
-      <c r="F61" s="36"/>
+      <c r="F61" s="38"/>
       <c r="H61" s="15"/>
       <c r="I61" s="15">
         <v>152</v>
@@ -5942,15 +5947,15 @@
       <c r="F65" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G65" s="37" t="s">
+      <c r="G65" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
     </row>
     <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="14" t="s">
@@ -5959,15 +5964,15 @@
       <c r="F66" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="14" t="s">
@@ -5976,15 +5981,15 @@
       <c r="F67" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G67" s="37" t="s">
+      <c r="G67" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
     </row>
     <row r="68" spans="4:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E68" s="14" t="s">
@@ -6010,15 +6015,15 @@
       <c r="F69" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
     </row>
     <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D70" s="14" t="s">
@@ -6079,15 +6084,15 @@
       <c r="F73" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G73" s="38" t="s">
+      <c r="G73" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
     </row>
     <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E74" s="14" t="s">
@@ -6096,15 +6101,15 @@
       <c r="F74" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
     </row>
     <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E75" s="14" t="s">
@@ -6113,15 +6118,15 @@
       <c r="F75" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
     </row>
     <row r="76" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E76" s="14" t="s">
@@ -6130,15 +6135,15 @@
       <c r="F76" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G76" s="38" t="s">
+      <c r="G76" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
     </row>
     <row r="77" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E77" s="14" t="s">
@@ -6147,15 +6152,15 @@
       <c r="F77" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
     </row>
     <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D78" s="14" t="s">
@@ -6182,15 +6187,15 @@
       <c r="F79" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
     </row>
     <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E80" s="14" t="s">
@@ -6233,15 +6238,15 @@
       <c r="F82" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G82" s="38" t="s">
+      <c r="G82" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E83" s="14" t="s">
@@ -6250,15 +6255,15 @@
       <c r="F83" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G83" s="38" t="s">
+      <c r="G83" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
     </row>
     <row r="84" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D84" s="14" t="s">
@@ -6285,15 +6290,15 @@
       <c r="F85" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G85" s="39" t="s">
+      <c r="G85" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E86" s="14" t="s">
@@ -6370,15 +6375,15 @@
       <c r="F90" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G90" s="37" t="s">
+      <c r="G90" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E91" s="14" t="s">
@@ -6404,15 +6409,15 @@
       <c r="F92" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G92" s="37" t="s">
+      <c r="G92" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
     </row>
     <row r="93" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E93" s="14" t="s">
@@ -6421,22 +6426,22 @@
       <c r="F93" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G93" s="38" t="s">
+      <c r="G93" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="38"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="39" t="s">
         <v>179</v>
       </c>
       <c r="D94" s="6"/>
-      <c r="F94" s="36" t="s">
+      <c r="F94" s="38" t="s">
         <v>180</v>
       </c>
       <c r="H94" s="15"/>
@@ -6451,9 +6456,9 @@
       </c>
     </row>
     <row r="95" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C95" s="35"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="6"/>
-      <c r="F95" s="36"/>
+      <c r="F95" s="38"/>
       <c r="H95" s="15"/>
       <c r="I95" s="15">
         <v>162</v>
@@ -6467,10 +6472,10 @@
     </row>
     <row r="96" spans="3:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="14"/>
-      <c r="D96" s="37" t="s">
+      <c r="D96" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="F96" s="36" t="s">
+      <c r="F96" s="38" t="s">
         <v>182</v>
       </c>
       <c r="H96" s="15"/>
@@ -6486,8 +6491,8 @@
     </row>
     <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="14"/>
-      <c r="D97" s="37"/>
-      <c r="F97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="F97" s="38"/>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15">
@@ -6588,15 +6593,15 @@
       <c r="F102" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G102" s="38" t="s">
+      <c r="G102" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
     </row>
     <row r="103" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C103" s="6"/>
@@ -6607,22 +6612,22 @@
       <c r="F103" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G103" s="38" t="s">
+      <c r="G103" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
     </row>
     <row r="104" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="39" t="s">
         <v>199</v>
       </c>
       <c r="D104" s="6"/>
-      <c r="F104" s="36" t="s">
+      <c r="F104" s="38" t="s">
         <v>200</v>
       </c>
       <c r="H104" s="15"/>
@@ -6637,9 +6642,9 @@
       </c>
     </row>
     <row r="105" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C105" s="35"/>
+      <c r="C105" s="39"/>
       <c r="D105" s="6"/>
-      <c r="F105" s="36"/>
+      <c r="F105" s="38"/>
       <c r="H105" s="15"/>
       <c r="I105" s="15">
         <v>172</v>
@@ -6680,15 +6685,15 @@
       <c r="F107" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G107" s="38" t="s">
+      <c r="G107" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
-      <c r="L107" s="38"/>
-      <c r="M107" s="38"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="35"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="35"/>
+      <c r="M107" s="35"/>
     </row>
     <row r="108" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E108" s="14" t="s">
@@ -6800,15 +6805,15 @@
       <c r="F114" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="G114" s="37" t="s">
+      <c r="G114" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="37"/>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
     </row>
     <row r="115" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E115" s="14" t="s">
@@ -6817,15 +6822,15 @@
       <c r="F115" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G115" s="38" t="s">
+      <c r="G115" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
-      <c r="L115" s="38"/>
-      <c r="M115" s="38"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="35"/>
+      <c r="K115" s="35"/>
+      <c r="L115" s="35"/>
+      <c r="M115" s="35"/>
     </row>
     <row r="116" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D116" s="14" t="s">
@@ -6869,15 +6874,15 @@
       <c r="F118" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G118" s="38" t="s">
+      <c r="G118" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="38"/>
-      <c r="L118" s="38"/>
-      <c r="M118" s="38"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="35"/>
+      <c r="K118" s="35"/>
+      <c r="L118" s="35"/>
+      <c r="M118" s="35"/>
     </row>
     <row r="119" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D119" s="14" t="s">
@@ -6906,15 +6911,15 @@
       <c r="F120" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G120" s="38" t="s">
+      <c r="G120" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="38"/>
-      <c r="M120" s="38"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="35"/>
+      <c r="K120" s="35"/>
+      <c r="L120" s="35"/>
+      <c r="M120" s="35"/>
     </row>
     <row r="121" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E121" s="14" t="s">
@@ -6991,15 +6996,15 @@
       <c r="F125" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G125" s="38" t="s">
+      <c r="G125" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
-      <c r="L125" s="38"/>
-      <c r="M125" s="38"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="35"/>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
     </row>
     <row r="126" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E126" s="14" t="s">
@@ -7008,15 +7013,15 @@
       <c r="F126" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G126" s="38" t="s">
+      <c r="G126" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="38"/>
-      <c r="K126" s="38"/>
-      <c r="L126" s="38"/>
-      <c r="M126" s="38"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="35"/>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
     </row>
     <row r="127" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E127" s="14" t="s">
@@ -7025,22 +7030,22 @@
       <c r="F127" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="G127" s="38" t="s">
+      <c r="G127" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="38"/>
-      <c r="L127" s="38"/>
-      <c r="M127" s="38"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="35"/>
+      <c r="M127" s="35"/>
     </row>
     <row r="128" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C128" s="35" t="s">
+      <c r="C128" s="39" t="s">
         <v>254</v>
       </c>
       <c r="D128" s="6"/>
-      <c r="F128" s="36" t="s">
+      <c r="F128" s="38" t="s">
         <v>255</v>
       </c>
       <c r="H128" s="15"/>
@@ -7056,9 +7061,9 @@
       </c>
     </row>
     <row r="129" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C129" s="35"/>
+      <c r="C129" s="39"/>
       <c r="D129" s="6"/>
-      <c r="F129" s="36"/>
+      <c r="F129" s="38"/>
       <c r="H129" s="15"/>
       <c r="I129" s="15">
         <v>173</v>
@@ -7088,10 +7093,10 @@
       </c>
     </row>
     <row r="131" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E131" s="35" t="s">
+      <c r="E131" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="F131" s="36" t="s">
+      <c r="F131" s="38" t="s">
         <v>260</v>
       </c>
       <c r="H131" s="15"/>
@@ -7105,8 +7110,8 @@
       </c>
     </row>
     <row r="132" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="E132" s="35"/>
-      <c r="F132" s="36"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="38"/>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
       <c r="K132" s="12" t="s">
@@ -7124,15 +7129,15 @@
       <c r="F133" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G133" s="38" t="s">
+      <c r="G133" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
     </row>
     <row r="134" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E134" s="14" t="s">
@@ -7141,15 +7146,15 @@
       <c r="F134" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G134" s="38" t="s">
+      <c r="G134" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H134" s="38"/>
-      <c r="I134" s="38"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38"/>
-      <c r="L134" s="38"/>
-      <c r="M134" s="38"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="35"/>
     </row>
     <row r="135" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D135" s="14" t="s">
@@ -7256,15 +7261,15 @@
       <c r="F140" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G140" s="38" t="s">
+      <c r="G140" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H140" s="38"/>
-      <c r="I140" s="38"/>
-      <c r="J140" s="38"/>
-      <c r="K140" s="38"/>
-      <c r="L140" s="38"/>
-      <c r="M140" s="38"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="35"/>
     </row>
     <row r="141" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C141" s="6"/>
@@ -7275,15 +7280,15 @@
       <c r="F141" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G141" s="38" t="s">
+      <c r="G141" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
-      <c r="L141" s="38"/>
-      <c r="M141" s="38"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="35"/>
+      <c r="M141" s="35"/>
     </row>
     <row r="142" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C142" s="14" t="s">
@@ -7312,15 +7317,15 @@
       <c r="F143" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="G143" s="38" t="s">
+      <c r="G143" s="35" t="s">
         <v>912</v>
       </c>
-      <c r="H143" s="38"/>
-      <c r="I143" s="38"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
-      <c r="L143" s="38"/>
-      <c r="M143" s="38"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="35"/>
+      <c r="M143" s="35"/>
     </row>
     <row r="144" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C144" s="13"/>
@@ -7331,15 +7336,15 @@
       <c r="F144" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="G144" s="38" t="s">
+      <c r="G144" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H144" s="38"/>
-      <c r="I144" s="38"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="38"/>
-      <c r="L144" s="38"/>
-      <c r="M144" s="38"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="35"/>
+      <c r="J144" s="35"/>
+      <c r="K144" s="35"/>
+      <c r="L144" s="35"/>
+      <c r="M144" s="35"/>
     </row>
     <row r="145" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C145" s="13"/>
@@ -7349,15 +7354,15 @@
       <c r="F145" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="G145" s="38" t="s">
+      <c r="G145" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="H145" s="38"/>
-      <c r="I145" s="38"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="38"/>
-      <c r="L145" s="38"/>
-      <c r="M145" s="38"/>
+      <c r="H145" s="35"/>
+      <c r="I145" s="35"/>
+      <c r="J145" s="35"/>
+      <c r="K145" s="35"/>
+      <c r="L145" s="35"/>
+      <c r="M145" s="35"/>
     </row>
     <row r="146" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C146" s="13"/>
@@ -7368,15 +7373,15 @@
       <c r="F146" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="G146" s="38" t="s">
+      <c r="G146" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H146" s="38"/>
-      <c r="I146" s="38"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="38"/>
-      <c r="L146" s="38"/>
-      <c r="M146" s="38"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="35"/>
+      <c r="J146" s="35"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="35"/>
+      <c r="M146" s="35"/>
     </row>
     <row r="147" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C147" s="13"/>
@@ -7387,15 +7392,15 @@
       <c r="F147" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="G147" s="38" t="s">
+      <c r="G147" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H147" s="38"/>
-      <c r="I147" s="38"/>
-      <c r="J147" s="38"/>
-      <c r="K147" s="38"/>
-      <c r="L147" s="38"/>
-      <c r="M147" s="38"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+      <c r="J147" s="35"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="35"/>
+      <c r="M147" s="35"/>
     </row>
     <row r="148" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C148" s="7"/>
@@ -7604,15 +7609,15 @@
       <c r="F158" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G158" s="39" t="s">
+      <c r="G158" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H158" s="39"/>
-      <c r="I158" s="39"/>
-      <c r="J158" s="39"/>
-      <c r="K158" s="39"/>
-      <c r="L158" s="39"/>
-      <c r="M158" s="39"/>
+      <c r="H158" s="37"/>
+      <c r="I158" s="37"/>
+      <c r="J158" s="37"/>
+      <c r="K158" s="37"/>
+      <c r="L158" s="37"/>
+      <c r="M158" s="37"/>
     </row>
     <row r="159" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C159" s="6"/>
@@ -7623,15 +7628,15 @@
       <c r="F159" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="G159" s="39" t="s">
+      <c r="G159" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H159" s="39"/>
-      <c r="I159" s="39"/>
-      <c r="J159" s="39"/>
-      <c r="K159" s="39"/>
-      <c r="L159" s="39"/>
-      <c r="M159" s="39"/>
+      <c r="H159" s="37"/>
+      <c r="I159" s="37"/>
+      <c r="J159" s="37"/>
+      <c r="K159" s="37"/>
+      <c r="L159" s="37"/>
+      <c r="M159" s="37"/>
     </row>
     <row r="160" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C160" s="6"/>
@@ -7642,15 +7647,15 @@
       <c r="F160" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="G160" s="39" t="s">
+      <c r="G160" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H160" s="39"/>
-      <c r="I160" s="39"/>
-      <c r="J160" s="39"/>
-      <c r="K160" s="39"/>
-      <c r="L160" s="39"/>
-      <c r="M160" s="39"/>
+      <c r="H160" s="37"/>
+      <c r="I160" s="37"/>
+      <c r="J160" s="37"/>
+      <c r="K160" s="37"/>
+      <c r="L160" s="37"/>
+      <c r="M160" s="37"/>
     </row>
     <row r="161" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C161" s="6"/>
@@ -7661,15 +7666,15 @@
       <c r="F161" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G161" s="39" t="s">
+      <c r="G161" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H161" s="39"/>
-      <c r="I161" s="39"/>
-      <c r="J161" s="39"/>
-      <c r="K161" s="39"/>
-      <c r="L161" s="39"/>
-      <c r="M161" s="39"/>
+      <c r="H161" s="37"/>
+      <c r="I161" s="37"/>
+      <c r="J161" s="37"/>
+      <c r="K161" s="37"/>
+      <c r="L161" s="37"/>
+      <c r="M161" s="37"/>
     </row>
     <row r="162" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C162" s="6"/>
@@ -7700,15 +7705,15 @@
       <c r="F163" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="G163" s="39" t="s">
+      <c r="G163" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H163" s="39"/>
-      <c r="I163" s="39"/>
-      <c r="J163" s="39"/>
-      <c r="K163" s="39"/>
-      <c r="L163" s="39"/>
-      <c r="M163" s="39"/>
+      <c r="H163" s="37"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="37"/>
+      <c r="K163" s="37"/>
+      <c r="L163" s="37"/>
+      <c r="M163" s="37"/>
     </row>
     <row r="164" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C164" s="6"/>
@@ -7719,15 +7724,15 @@
       <c r="F164" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="G164" s="39" t="s">
+      <c r="G164" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H164" s="39"/>
-      <c r="I164" s="39"/>
-      <c r="J164" s="39"/>
-      <c r="K164" s="39"/>
-      <c r="L164" s="39"/>
-      <c r="M164" s="39"/>
+      <c r="H164" s="37"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="37"/>
+      <c r="K164" s="37"/>
+      <c r="L164" s="37"/>
+      <c r="M164" s="37"/>
     </row>
     <row r="165" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C165" s="6"/>
@@ -7778,15 +7783,15 @@
       <c r="F167" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="G167" s="39" t="s">
+      <c r="G167" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H167" s="39"/>
-      <c r="I167" s="39"/>
-      <c r="J167" s="39"/>
-      <c r="K167" s="39"/>
-      <c r="L167" s="39"/>
-      <c r="M167" s="39"/>
+      <c r="H167" s="37"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="37"/>
+      <c r="K167" s="37"/>
+      <c r="L167" s="37"/>
+      <c r="M167" s="37"/>
     </row>
     <row r="168" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C168" s="6"/>
@@ -7797,15 +7802,15 @@
       <c r="F168" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G168" s="38" t="s">
+      <c r="G168" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H168" s="38"/>
-      <c r="I168" s="38"/>
-      <c r="J168" s="38"/>
-      <c r="K168" s="38"/>
-      <c r="L168" s="38"/>
-      <c r="M168" s="38"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="35"/>
+      <c r="J168" s="35"/>
+      <c r="K168" s="35"/>
+      <c r="L168" s="35"/>
+      <c r="M168" s="35"/>
     </row>
     <row r="169" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C169" s="6"/>
@@ -7816,15 +7821,15 @@
       <c r="F169" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="G169" s="39" t="s">
+      <c r="G169" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H169" s="39"/>
-      <c r="I169" s="39"/>
-      <c r="J169" s="39"/>
-      <c r="K169" s="39"/>
-      <c r="L169" s="39"/>
-      <c r="M169" s="39"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
+      <c r="K169" s="37"/>
+      <c r="L169" s="37"/>
+      <c r="M169" s="37"/>
     </row>
     <row r="170" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C170" s="6"/>
@@ -7895,15 +7900,15 @@
       <c r="F173" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G173" s="38" t="s">
+      <c r="G173" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H173" s="38"/>
-      <c r="I173" s="38"/>
-      <c r="J173" s="38"/>
-      <c r="K173" s="38"/>
-      <c r="L173" s="38"/>
-      <c r="M173" s="38"/>
+      <c r="H173" s="35"/>
+      <c r="I173" s="35"/>
+      <c r="J173" s="35"/>
+      <c r="K173" s="35"/>
+      <c r="L173" s="35"/>
+      <c r="M173" s="35"/>
     </row>
     <row r="174" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C174" s="6"/>
@@ -7914,15 +7919,15 @@
       <c r="F174" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="G174" s="38" t="s">
+      <c r="G174" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H174" s="38"/>
-      <c r="I174" s="38"/>
-      <c r="J174" s="38"/>
-      <c r="K174" s="38"/>
-      <c r="L174" s="38"/>
-      <c r="M174" s="38"/>
+      <c r="H174" s="35"/>
+      <c r="I174" s="35"/>
+      <c r="J174" s="35"/>
+      <c r="K174" s="35"/>
+      <c r="L174" s="35"/>
+      <c r="M174" s="35"/>
     </row>
     <row r="175" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C175" s="6"/>
@@ -7973,15 +7978,15 @@
       <c r="F177" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="G177" s="38" t="s">
+      <c r="G177" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H177" s="38"/>
-      <c r="I177" s="38"/>
-      <c r="J177" s="38"/>
-      <c r="K177" s="38"/>
-      <c r="L177" s="38"/>
-      <c r="M177" s="38"/>
+      <c r="H177" s="35"/>
+      <c r="I177" s="35"/>
+      <c r="J177" s="35"/>
+      <c r="K177" s="35"/>
+      <c r="L177" s="35"/>
+      <c r="M177" s="35"/>
     </row>
     <row r="178" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C178" s="6"/>
@@ -7992,15 +7997,15 @@
       <c r="F178" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G178" s="38" t="s">
+      <c r="G178" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H178" s="38"/>
-      <c r="I178" s="38"/>
-      <c r="J178" s="38"/>
-      <c r="K178" s="38"/>
-      <c r="L178" s="38"/>
-      <c r="M178" s="38"/>
+      <c r="H178" s="35"/>
+      <c r="I178" s="35"/>
+      <c r="J178" s="35"/>
+      <c r="K178" s="35"/>
+      <c r="L178" s="35"/>
+      <c r="M178" s="35"/>
     </row>
     <row r="179" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C179" s="6"/>
@@ -8011,15 +8016,15 @@
       <c r="F179" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="G179" s="38" t="s">
+      <c r="G179" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H179" s="38"/>
-      <c r="I179" s="38"/>
-      <c r="J179" s="38"/>
-      <c r="K179" s="38"/>
-      <c r="L179" s="38"/>
-      <c r="M179" s="38"/>
+      <c r="H179" s="35"/>
+      <c r="I179" s="35"/>
+      <c r="J179" s="35"/>
+      <c r="K179" s="35"/>
+      <c r="L179" s="35"/>
+      <c r="M179" s="35"/>
     </row>
     <row r="180" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C180" s="6"/>
@@ -8050,15 +8055,15 @@
       <c r="F181" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="G181" s="38" t="s">
+      <c r="G181" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H181" s="38"/>
-      <c r="I181" s="38"/>
-      <c r="J181" s="38"/>
-      <c r="K181" s="38"/>
-      <c r="L181" s="38"/>
-      <c r="M181" s="38"/>
+      <c r="H181" s="35"/>
+      <c r="I181" s="35"/>
+      <c r="J181" s="35"/>
+      <c r="K181" s="35"/>
+      <c r="L181" s="35"/>
+      <c r="M181" s="35"/>
     </row>
     <row r="182" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C182" s="6"/>
@@ -8069,15 +8074,15 @@
       <c r="F182" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="G182" s="38" t="s">
+      <c r="G182" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H182" s="38"/>
-      <c r="I182" s="38"/>
-      <c r="J182" s="38"/>
-      <c r="K182" s="38"/>
-      <c r="L182" s="38"/>
-      <c r="M182" s="38"/>
+      <c r="H182" s="35"/>
+      <c r="I182" s="35"/>
+      <c r="J182" s="35"/>
+      <c r="K182" s="35"/>
+      <c r="L182" s="35"/>
+      <c r="M182" s="35"/>
     </row>
     <row r="183" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C183" s="6"/>
@@ -8088,15 +8093,15 @@
       <c r="F183" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="G183" s="38" t="s">
+      <c r="G183" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H183" s="38"/>
-      <c r="I183" s="38"/>
-      <c r="J183" s="38"/>
-      <c r="K183" s="38"/>
-      <c r="L183" s="38"/>
-      <c r="M183" s="38"/>
+      <c r="H183" s="35"/>
+      <c r="I183" s="35"/>
+      <c r="J183" s="35"/>
+      <c r="K183" s="35"/>
+      <c r="L183" s="35"/>
+      <c r="M183" s="35"/>
     </row>
     <row r="184" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C184" s="6"/>
@@ -8107,15 +8112,15 @@
       <c r="F184" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="G184" s="38" t="s">
+      <c r="G184" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H184" s="38"/>
-      <c r="I184" s="38"/>
-      <c r="J184" s="38"/>
-      <c r="K184" s="38"/>
-      <c r="L184" s="38"/>
-      <c r="M184" s="38"/>
+      <c r="H184" s="35"/>
+      <c r="I184" s="35"/>
+      <c r="J184" s="35"/>
+      <c r="K184" s="35"/>
+      <c r="L184" s="35"/>
+      <c r="M184" s="35"/>
     </row>
     <row r="185" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C185" s="6"/>
@@ -8126,15 +8131,15 @@
       <c r="F185" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G185" s="38" t="s">
+      <c r="G185" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H185" s="38"/>
-      <c r="I185" s="38"/>
-      <c r="J185" s="38"/>
-      <c r="K185" s="38"/>
-      <c r="L185" s="38"/>
-      <c r="M185" s="38"/>
+      <c r="H185" s="35"/>
+      <c r="I185" s="35"/>
+      <c r="J185" s="35"/>
+      <c r="K185" s="35"/>
+      <c r="L185" s="35"/>
+      <c r="M185" s="35"/>
     </row>
     <row r="186" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C186" s="6"/>
@@ -8165,15 +8170,15 @@
       <c r="F187" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="G187" s="38" t="s">
+      <c r="G187" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H187" s="38"/>
-      <c r="I187" s="38"/>
-      <c r="J187" s="38"/>
-      <c r="K187" s="38"/>
-      <c r="L187" s="38"/>
-      <c r="M187" s="38"/>
+      <c r="H187" s="35"/>
+      <c r="I187" s="35"/>
+      <c r="J187" s="35"/>
+      <c r="K187" s="35"/>
+      <c r="L187" s="35"/>
+      <c r="M187" s="35"/>
     </row>
     <row r="188" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C188" s="6"/>
@@ -8184,15 +8189,15 @@
       <c r="F188" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="G188" s="38" t="s">
+      <c r="G188" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H188" s="38"/>
-      <c r="I188" s="38"/>
-      <c r="J188" s="38"/>
-      <c r="K188" s="38"/>
-      <c r="L188" s="38"/>
-      <c r="M188" s="38"/>
+      <c r="H188" s="35"/>
+      <c r="I188" s="35"/>
+      <c r="J188" s="35"/>
+      <c r="K188" s="35"/>
+      <c r="L188" s="35"/>
+      <c r="M188" s="35"/>
     </row>
     <row r="189" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C189" s="6"/>
@@ -8203,15 +8208,15 @@
       <c r="F189" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="G189" s="38" t="s">
+      <c r="G189" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H189" s="38"/>
-      <c r="I189" s="38"/>
-      <c r="J189" s="38"/>
-      <c r="K189" s="38"/>
-      <c r="L189" s="38"/>
-      <c r="M189" s="38"/>
+      <c r="H189" s="35"/>
+      <c r="I189" s="35"/>
+      <c r="J189" s="35"/>
+      <c r="K189" s="35"/>
+      <c r="L189" s="35"/>
+      <c r="M189" s="35"/>
     </row>
     <row r="190" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C190" s="6"/>
@@ -8222,15 +8227,15 @@
       <c r="F190" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="G190" s="38" t="s">
+      <c r="G190" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H190" s="38"/>
-      <c r="I190" s="38"/>
-      <c r="J190" s="38"/>
-      <c r="K190" s="38"/>
-      <c r="L190" s="38"/>
-      <c r="M190" s="38"/>
+      <c r="H190" s="35"/>
+      <c r="I190" s="35"/>
+      <c r="J190" s="35"/>
+      <c r="K190" s="35"/>
+      <c r="L190" s="35"/>
+      <c r="M190" s="35"/>
     </row>
     <row r="191" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C191" s="6"/>
@@ -8241,15 +8246,15 @@
       <c r="F191" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G191" s="38" t="s">
+      <c r="G191" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H191" s="38"/>
-      <c r="I191" s="38"/>
-      <c r="J191" s="38"/>
-      <c r="K191" s="38"/>
-      <c r="L191" s="38"/>
-      <c r="M191" s="38"/>
+      <c r="H191" s="35"/>
+      <c r="I191" s="35"/>
+      <c r="J191" s="35"/>
+      <c r="K191" s="35"/>
+      <c r="L191" s="35"/>
+      <c r="M191" s="35"/>
     </row>
     <row r="192" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C192" s="6"/>
@@ -8260,22 +8265,22 @@
       <c r="F192" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G192" s="38" t="s">
+      <c r="G192" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H192" s="38"/>
-      <c r="I192" s="38"/>
-      <c r="J192" s="38"/>
-      <c r="K192" s="38"/>
-      <c r="L192" s="38"/>
-      <c r="M192" s="38"/>
+      <c r="H192" s="35"/>
+      <c r="I192" s="35"/>
+      <c r="J192" s="35"/>
+      <c r="K192" s="35"/>
+      <c r="L192" s="35"/>
+      <c r="M192" s="35"/>
     </row>
     <row r="193" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C193" s="35" t="s">
+      <c r="C193" s="39" t="s">
         <v>387</v>
       </c>
       <c r="D193" s="6"/>
-      <c r="F193" s="36" t="s">
+      <c r="F193" s="38" t="s">
         <v>388</v>
       </c>
       <c r="H193" s="15"/>
@@ -8288,9 +8293,9 @@
       </c>
     </row>
     <row r="194" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C194" s="35"/>
+      <c r="C194" s="39"/>
       <c r="D194" s="6"/>
-      <c r="F194" s="36"/>
+      <c r="F194" s="38"/>
       <c r="H194" s="15"/>
       <c r="I194" s="15">
         <v>122</v>
@@ -8301,9 +8306,9 @@
       </c>
     </row>
     <row r="195" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C195" s="35"/>
+      <c r="C195" s="39"/>
       <c r="D195" s="6"/>
-      <c r="F195" s="36"/>
+      <c r="F195" s="38"/>
       <c r="H195" s="15"/>
       <c r="I195" s="15">
         <v>131</v>
@@ -8317,9 +8322,9 @@
       </c>
     </row>
     <row r="196" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C196" s="35"/>
+      <c r="C196" s="39"/>
       <c r="D196" s="6"/>
-      <c r="F196" s="36"/>
+      <c r="F196" s="38"/>
       <c r="H196" s="15"/>
       <c r="I196" s="15">
         <v>132</v>
@@ -8334,10 +8339,10 @@
       </c>
     </row>
     <row r="197" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D197" s="35" t="s">
+      <c r="D197" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="F197" s="36" t="s">
+      <c r="F197" s="38" t="s">
         <v>389</v>
       </c>
       <c r="H197" s="15"/>
@@ -8354,8 +8359,8 @@
       </c>
     </row>
     <row r="198" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D198" s="35"/>
-      <c r="F198" s="36"/>
+      <c r="D198" s="39"/>
+      <c r="F198" s="38"/>
       <c r="H198" s="15"/>
       <c r="I198" s="15"/>
       <c r="J198" s="15">
@@ -8370,8 +8375,8 @@
       </c>
     </row>
     <row r="199" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D199" s="35"/>
-      <c r="F199" s="36"/>
+      <c r="D199" s="39"/>
+      <c r="F199" s="38"/>
       <c r="H199" s="15"/>
       <c r="I199" s="15"/>
       <c r="J199" s="15">
@@ -8424,15 +8429,15 @@
       <c r="F202" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="G202" s="38" t="s">
+      <c r="G202" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H202" s="38"/>
-      <c r="I202" s="38"/>
-      <c r="J202" s="38"/>
-      <c r="K202" s="38"/>
-      <c r="L202" s="38"/>
-      <c r="M202" s="38"/>
+      <c r="H202" s="35"/>
+      <c r="I202" s="35"/>
+      <c r="J202" s="35"/>
+      <c r="K202" s="35"/>
+      <c r="L202" s="35"/>
+      <c r="M202" s="35"/>
     </row>
     <row r="203" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E203" s="14" t="s">
@@ -8527,15 +8532,15 @@
       <c r="F208" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="G208" s="38" t="s">
+      <c r="G208" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H208" s="38"/>
-      <c r="I208" s="38"/>
-      <c r="J208" s="38"/>
-      <c r="K208" s="38"/>
-      <c r="L208" s="38"/>
-      <c r="M208" s="38"/>
+      <c r="H208" s="35"/>
+      <c r="I208" s="35"/>
+      <c r="J208" s="35"/>
+      <c r="K208" s="35"/>
+      <c r="L208" s="35"/>
+      <c r="M208" s="35"/>
     </row>
     <row r="209" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E209" s="14" t="s">
@@ -8544,15 +8549,15 @@
       <c r="F209" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="G209" s="38" t="s">
+      <c r="G209" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H209" s="38"/>
-      <c r="I209" s="38"/>
-      <c r="J209" s="38"/>
-      <c r="K209" s="38"/>
-      <c r="L209" s="38"/>
-      <c r="M209" s="38"/>
+      <c r="H209" s="35"/>
+      <c r="I209" s="35"/>
+      <c r="J209" s="35"/>
+      <c r="K209" s="35"/>
+      <c r="L209" s="35"/>
+      <c r="M209" s="35"/>
     </row>
     <row r="210" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D210" s="14" t="s">
@@ -8617,15 +8622,15 @@
       <c r="F213" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="G213" s="38" t="s">
+      <c r="G213" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H213" s="38"/>
-      <c r="I213" s="38"/>
-      <c r="J213" s="38"/>
-      <c r="K213" s="38"/>
-      <c r="L213" s="38"/>
-      <c r="M213" s="38"/>
+      <c r="H213" s="35"/>
+      <c r="I213" s="35"/>
+      <c r="J213" s="35"/>
+      <c r="K213" s="35"/>
+      <c r="L213" s="35"/>
+      <c r="M213" s="35"/>
     </row>
     <row r="214" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D214" s="14" t="s">
@@ -8721,15 +8726,15 @@
       <c r="F219" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="G219" s="38" t="s">
+      <c r="G219" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="H219" s="38"/>
-      <c r="I219" s="38"/>
-      <c r="J219" s="38"/>
-      <c r="K219" s="38"/>
-      <c r="L219" s="38"/>
-      <c r="M219" s="38"/>
+      <c r="H219" s="35"/>
+      <c r="I219" s="35"/>
+      <c r="J219" s="35"/>
+      <c r="K219" s="35"/>
+      <c r="L219" s="35"/>
+      <c r="M219" s="35"/>
     </row>
     <row r="220" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E220" s="14" t="s">
@@ -8738,15 +8743,15 @@
       <c r="F220" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G220" s="38" t="s">
+      <c r="G220" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H220" s="38"/>
-      <c r="I220" s="38"/>
-      <c r="J220" s="38"/>
-      <c r="K220" s="38"/>
-      <c r="L220" s="38"/>
-      <c r="M220" s="38"/>
+      <c r="H220" s="35"/>
+      <c r="I220" s="35"/>
+      <c r="J220" s="35"/>
+      <c r="K220" s="35"/>
+      <c r="L220" s="35"/>
+      <c r="M220" s="35"/>
     </row>
     <row r="221" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E221" s="14" t="s">
@@ -8755,15 +8760,15 @@
       <c r="F221" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="G221" s="38" t="s">
+      <c r="G221" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H221" s="38"/>
-      <c r="I221" s="38"/>
-      <c r="J221" s="38"/>
-      <c r="K221" s="38"/>
-      <c r="L221" s="38"/>
-      <c r="M221" s="38"/>
+      <c r="H221" s="35"/>
+      <c r="I221" s="35"/>
+      <c r="J221" s="35"/>
+      <c r="K221" s="35"/>
+      <c r="L221" s="35"/>
+      <c r="M221" s="35"/>
     </row>
     <row r="222" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C222" s="14"/>
@@ -8953,15 +8958,15 @@
       <c r="F231" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="G231" s="38" t="s">
+      <c r="G231" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H231" s="38"/>
-      <c r="I231" s="38"/>
-      <c r="J231" s="38"/>
-      <c r="K231" s="38"/>
-      <c r="L231" s="38"/>
-      <c r="M231" s="38"/>
+      <c r="H231" s="35"/>
+      <c r="I231" s="35"/>
+      <c r="J231" s="35"/>
+      <c r="K231" s="35"/>
+      <c r="L231" s="35"/>
+      <c r="M231" s="35"/>
     </row>
     <row r="232" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C232" s="14"/>
@@ -9005,11 +9010,11 @@
     </row>
     <row r="234" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C234" s="14"/>
-      <c r="D234" s="35" t="s">
+      <c r="D234" s="39" t="s">
         <v>755</v>
       </c>
       <c r="E234" s="42"/>
-      <c r="F234" s="36" t="s">
+      <c r="F234" s="38" t="s">
         <v>756</v>
       </c>
       <c r="H234" s="15"/>
@@ -9025,9 +9030,9 @@
     </row>
     <row r="235" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C235" s="14"/>
-      <c r="D235" s="35"/>
+      <c r="D235" s="39"/>
       <c r="E235" s="42"/>
-      <c r="F235" s="36"/>
+      <c r="F235" s="38"/>
       <c r="H235" s="15"/>
       <c r="I235" s="15"/>
       <c r="J235" s="14" t="s">
@@ -9043,9 +9048,9 @@
     </row>
     <row r="236" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C236" s="14"/>
-      <c r="D236" s="35"/>
+      <c r="D236" s="39"/>
       <c r="E236" s="42"/>
-      <c r="F236" s="36"/>
+      <c r="F236" s="38"/>
       <c r="H236" s="15"/>
       <c r="I236" s="15"/>
       <c r="J236" s="14" t="s">
@@ -9061,9 +9066,9 @@
     </row>
     <row r="237" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C237" s="14"/>
-      <c r="D237" s="35"/>
+      <c r="D237" s="39"/>
       <c r="E237" s="42"/>
-      <c r="F237" s="36"/>
+      <c r="F237" s="38"/>
       <c r="H237" s="15"/>
       <c r="I237" s="15"/>
       <c r="J237" s="14" t="s">
@@ -9086,15 +9091,15 @@
       <c r="F238" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="G238" s="38" t="s">
+      <c r="G238" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H238" s="38"/>
-      <c r="I238" s="38"/>
-      <c r="J238" s="38"/>
-      <c r="K238" s="38"/>
-      <c r="L238" s="38"/>
-      <c r="M238" s="38"/>
+      <c r="H238" s="35"/>
+      <c r="I238" s="35"/>
+      <c r="J238" s="35"/>
+      <c r="K238" s="35"/>
+      <c r="L238" s="35"/>
+      <c r="M238" s="35"/>
     </row>
     <row r="239" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C239" s="6"/>
@@ -9105,15 +9110,15 @@
       <c r="F239" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="G239" s="38" t="s">
+      <c r="G239" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H239" s="38"/>
-      <c r="I239" s="38"/>
-      <c r="J239" s="38"/>
-      <c r="K239" s="38"/>
-      <c r="L239" s="38"/>
-      <c r="M239" s="38"/>
+      <c r="H239" s="35"/>
+      <c r="I239" s="35"/>
+      <c r="J239" s="35"/>
+      <c r="K239" s="35"/>
+      <c r="L239" s="35"/>
+      <c r="M239" s="35"/>
     </row>
     <row r="240" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C240" s="6"/>
@@ -9124,15 +9129,15 @@
       <c r="F240" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="G240" s="38" t="s">
+      <c r="G240" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H240" s="38"/>
-      <c r="I240" s="38"/>
-      <c r="J240" s="38"/>
-      <c r="K240" s="38"/>
-      <c r="L240" s="38"/>
-      <c r="M240" s="38"/>
+      <c r="H240" s="35"/>
+      <c r="I240" s="35"/>
+      <c r="J240" s="35"/>
+      <c r="K240" s="35"/>
+      <c r="L240" s="35"/>
+      <c r="M240" s="35"/>
     </row>
     <row r="241" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C241" s="6"/>
@@ -9143,15 +9148,15 @@
       <c r="F241" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="G241" s="38" t="s">
+      <c r="G241" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H241" s="38"/>
-      <c r="I241" s="38"/>
-      <c r="J241" s="38"/>
-      <c r="K241" s="38"/>
-      <c r="L241" s="38"/>
-      <c r="M241" s="38"/>
+      <c r="H241" s="35"/>
+      <c r="I241" s="35"/>
+      <c r="J241" s="35"/>
+      <c r="K241" s="35"/>
+      <c r="L241" s="35"/>
+      <c r="M241" s="35"/>
     </row>
     <row r="242" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C242" s="6"/>
@@ -9162,15 +9167,15 @@
       <c r="F242" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="G242" s="38" t="s">
+      <c r="G242" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H242" s="38"/>
-      <c r="I242" s="38"/>
-      <c r="J242" s="38"/>
-      <c r="K242" s="38"/>
-      <c r="L242" s="38"/>
-      <c r="M242" s="38"/>
+      <c r="H242" s="35"/>
+      <c r="I242" s="35"/>
+      <c r="J242" s="35"/>
+      <c r="K242" s="35"/>
+      <c r="L242" s="35"/>
+      <c r="M242" s="35"/>
     </row>
     <row r="243" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C243" s="6"/>
@@ -9181,15 +9186,15 @@
       <c r="F243" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="G243" s="38" t="s">
+      <c r="G243" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H243" s="38"/>
-      <c r="I243" s="38"/>
-      <c r="J243" s="38"/>
-      <c r="K243" s="38"/>
-      <c r="L243" s="38"/>
-      <c r="M243" s="38"/>
+      <c r="H243" s="35"/>
+      <c r="I243" s="35"/>
+      <c r="J243" s="35"/>
+      <c r="K243" s="35"/>
+      <c r="L243" s="35"/>
+      <c r="M243" s="35"/>
     </row>
     <row r="244" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C244" s="6"/>
@@ -9220,15 +9225,15 @@
       <c r="F245" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="G245" s="38" t="s">
+      <c r="G245" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H245" s="38"/>
-      <c r="I245" s="38"/>
-      <c r="J245" s="38"/>
-      <c r="K245" s="38"/>
-      <c r="L245" s="38"/>
-      <c r="M245" s="38"/>
+      <c r="H245" s="35"/>
+      <c r="I245" s="35"/>
+      <c r="J245" s="35"/>
+      <c r="K245" s="35"/>
+      <c r="L245" s="35"/>
+      <c r="M245" s="35"/>
     </row>
     <row r="246" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C246" s="6"/>
@@ -9259,15 +9264,15 @@
       <c r="F247" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="G247" s="38" t="s">
+      <c r="G247" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H247" s="38"/>
-      <c r="I247" s="38"/>
-      <c r="J247" s="38"/>
-      <c r="K247" s="38"/>
-      <c r="L247" s="38"/>
-      <c r="M247" s="38"/>
+      <c r="H247" s="35"/>
+      <c r="I247" s="35"/>
+      <c r="J247" s="35"/>
+      <c r="K247" s="35"/>
+      <c r="L247" s="35"/>
+      <c r="M247" s="35"/>
     </row>
     <row r="248" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C248" s="6"/>
@@ -9278,15 +9283,15 @@
       <c r="F248" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="G248" s="38" t="s">
+      <c r="G248" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H248" s="38"/>
-      <c r="I248" s="38"/>
-      <c r="J248" s="38"/>
-      <c r="K248" s="38"/>
-      <c r="L248" s="38"/>
-      <c r="M248" s="38"/>
+      <c r="H248" s="35"/>
+      <c r="I248" s="35"/>
+      <c r="J248" s="35"/>
+      <c r="K248" s="35"/>
+      <c r="L248" s="35"/>
+      <c r="M248" s="35"/>
     </row>
     <row r="249" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C249" s="6"/>
@@ -9317,15 +9322,15 @@
       <c r="F250" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="G250" s="38" t="s">
+      <c r="G250" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H250" s="38"/>
-      <c r="I250" s="38"/>
-      <c r="J250" s="38"/>
-      <c r="K250" s="38"/>
-      <c r="L250" s="38"/>
-      <c r="M250" s="38"/>
+      <c r="H250" s="35"/>
+      <c r="I250" s="35"/>
+      <c r="J250" s="35"/>
+      <c r="K250" s="35"/>
+      <c r="L250" s="35"/>
+      <c r="M250" s="35"/>
     </row>
     <row r="251" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C251" s="6"/>
@@ -9336,15 +9341,15 @@
       <c r="F251" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="G251" s="38" t="s">
+      <c r="G251" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H251" s="38"/>
-      <c r="I251" s="38"/>
-      <c r="J251" s="38"/>
-      <c r="K251" s="38"/>
-      <c r="L251" s="38"/>
-      <c r="M251" s="38"/>
+      <c r="H251" s="35"/>
+      <c r="I251" s="35"/>
+      <c r="J251" s="35"/>
+      <c r="K251" s="35"/>
+      <c r="L251" s="35"/>
+      <c r="M251" s="35"/>
     </row>
     <row r="252" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C252" s="6"/>
@@ -9355,15 +9360,15 @@
       <c r="F252" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="G252" s="38" t="s">
+      <c r="G252" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H252" s="38"/>
-      <c r="I252" s="38"/>
-      <c r="J252" s="38"/>
-      <c r="K252" s="38"/>
-      <c r="L252" s="38"/>
-      <c r="M252" s="38"/>
+      <c r="H252" s="35"/>
+      <c r="I252" s="35"/>
+      <c r="J252" s="35"/>
+      <c r="K252" s="35"/>
+      <c r="L252" s="35"/>
+      <c r="M252" s="35"/>
     </row>
     <row r="253" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C253" s="6"/>
@@ -9374,15 +9379,15 @@
       <c r="F253" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="G253" s="38" t="s">
+      <c r="G253" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H253" s="38"/>
-      <c r="I253" s="38"/>
-      <c r="J253" s="38"/>
-      <c r="K253" s="38"/>
-      <c r="L253" s="38"/>
-      <c r="M253" s="38"/>
+      <c r="H253" s="35"/>
+      <c r="I253" s="35"/>
+      <c r="J253" s="35"/>
+      <c r="K253" s="35"/>
+      <c r="L253" s="35"/>
+      <c r="M253" s="35"/>
     </row>
     <row r="254" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C254" s="6"/>
@@ -9393,15 +9398,15 @@
       <c r="F254" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="G254" s="38" t="s">
+      <c r="G254" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H254" s="38"/>
-      <c r="I254" s="38"/>
-      <c r="J254" s="38"/>
-      <c r="K254" s="38"/>
-      <c r="L254" s="38"/>
-      <c r="M254" s="38"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="35"/>
+      <c r="J254" s="35"/>
+      <c r="K254" s="35"/>
+      <c r="L254" s="35"/>
+      <c r="M254" s="35"/>
     </row>
     <row r="255" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C255" s="6"/>
@@ -9412,15 +9417,15 @@
       <c r="F255" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="G255" s="38" t="s">
+      <c r="G255" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H255" s="38"/>
-      <c r="I255" s="38"/>
-      <c r="J255" s="38"/>
-      <c r="K255" s="38"/>
-      <c r="L255" s="38"/>
-      <c r="M255" s="38"/>
+      <c r="H255" s="35"/>
+      <c r="I255" s="35"/>
+      <c r="J255" s="35"/>
+      <c r="K255" s="35"/>
+      <c r="L255" s="35"/>
+      <c r="M255" s="35"/>
     </row>
     <row r="256" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C256" s="6"/>
@@ -9451,15 +9456,15 @@
       <c r="F257" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="G257" s="38" t="s">
+      <c r="G257" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H257" s="38"/>
-      <c r="I257" s="38"/>
-      <c r="J257" s="38"/>
-      <c r="K257" s="38"/>
-      <c r="L257" s="38"/>
-      <c r="M257" s="38"/>
+      <c r="H257" s="35"/>
+      <c r="I257" s="35"/>
+      <c r="J257" s="35"/>
+      <c r="K257" s="35"/>
+      <c r="L257" s="35"/>
+      <c r="M257" s="35"/>
     </row>
     <row r="258" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C258" s="6"/>
@@ -9470,15 +9475,15 @@
       <c r="F258" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="G258" s="38" t="s">
+      <c r="G258" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H258" s="38"/>
-      <c r="I258" s="38"/>
-      <c r="J258" s="38"/>
-      <c r="K258" s="38"/>
-      <c r="L258" s="38"/>
-      <c r="M258" s="38"/>
+      <c r="H258" s="35"/>
+      <c r="I258" s="35"/>
+      <c r="J258" s="35"/>
+      <c r="K258" s="35"/>
+      <c r="L258" s="35"/>
+      <c r="M258" s="35"/>
     </row>
     <row r="259" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C259" s="6"/>
@@ -9582,13 +9587,13 @@
       <c r="H263" s="15"/>
       <c r="I263" s="15"/>
       <c r="J263" s="14"/>
-      <c r="K263" s="40" t="s">
+      <c r="K263" s="43" t="s">
         <v>525</v>
       </c>
-      <c r="L263" s="40" t="s">
+      <c r="L263" s="43" t="s">
         <v>857</v>
       </c>
-      <c r="M263" s="41" t="s">
+      <c r="M263" s="44" t="s">
         <v>835</v>
       </c>
     </row>
@@ -9605,9 +9610,9 @@
       <c r="H264" s="12"/>
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
-      <c r="K264" s="40"/>
-      <c r="L264" s="40"/>
-      <c r="M264" s="41"/>
+      <c r="K264" s="43"/>
+      <c r="L264" s="43"/>
+      <c r="M264" s="44"/>
     </row>
     <row r="265" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C265" s="6"/>
@@ -9638,15 +9643,15 @@
       <c r="F266" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="G266" s="38" t="s">
+      <c r="G266" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H266" s="38"/>
-      <c r="I266" s="38"/>
-      <c r="J266" s="38"/>
-      <c r="K266" s="38"/>
-      <c r="L266" s="38"/>
-      <c r="M266" s="38"/>
+      <c r="H266" s="35"/>
+      <c r="I266" s="35"/>
+      <c r="J266" s="35"/>
+      <c r="K266" s="35"/>
+      <c r="L266" s="35"/>
+      <c r="M266" s="35"/>
     </row>
     <row r="267" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C267" s="6"/>
@@ -9657,15 +9662,15 @@
       <c r="F267" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="G267" s="38" t="s">
+      <c r="G267" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H267" s="38"/>
-      <c r="I267" s="38"/>
-      <c r="J267" s="38"/>
-      <c r="K267" s="38"/>
-      <c r="L267" s="38"/>
-      <c r="M267" s="38"/>
+      <c r="H267" s="35"/>
+      <c r="I267" s="35"/>
+      <c r="J267" s="35"/>
+      <c r="K267" s="35"/>
+      <c r="L267" s="35"/>
+      <c r="M267" s="35"/>
     </row>
     <row r="268" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C268" s="6"/>
@@ -9676,15 +9681,15 @@
       <c r="F268" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="G268" s="38" t="s">
+      <c r="G268" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H268" s="38"/>
-      <c r="I268" s="38"/>
-      <c r="J268" s="38"/>
-      <c r="K268" s="38"/>
-      <c r="L268" s="38"/>
-      <c r="M268" s="38"/>
+      <c r="H268" s="35"/>
+      <c r="I268" s="35"/>
+      <c r="J268" s="35"/>
+      <c r="K268" s="35"/>
+      <c r="L268" s="35"/>
+      <c r="M268" s="35"/>
     </row>
     <row r="269" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C269" s="6"/>
@@ -9715,15 +9720,15 @@
       <c r="F270" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="G270" s="38" t="s">
+      <c r="G270" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H270" s="38"/>
-      <c r="I270" s="38"/>
-      <c r="J270" s="38"/>
-      <c r="K270" s="38"/>
-      <c r="L270" s="38"/>
-      <c r="M270" s="38"/>
+      <c r="H270" s="35"/>
+      <c r="I270" s="35"/>
+      <c r="J270" s="35"/>
+      <c r="K270" s="35"/>
+      <c r="L270" s="35"/>
+      <c r="M270" s="35"/>
     </row>
     <row r="271" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C271" s="6"/>
@@ -9734,23 +9739,23 @@
       <c r="F271" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="G271" s="38" t="s">
+      <c r="G271" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H271" s="38"/>
-      <c r="I271" s="38"/>
-      <c r="J271" s="38"/>
-      <c r="K271" s="38"/>
-      <c r="L271" s="38"/>
-      <c r="M271" s="38"/>
+      <c r="H271" s="35"/>
+      <c r="I271" s="35"/>
+      <c r="J271" s="35"/>
+      <c r="K271" s="35"/>
+      <c r="L271" s="35"/>
+      <c r="M271" s="35"/>
     </row>
     <row r="272" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C272" s="35" t="s">
+      <c r="C272" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="D272" s="37"/>
-      <c r="E272" s="39"/>
-      <c r="F272" s="36" t="s">
+      <c r="D272" s="36"/>
+      <c r="E272" s="37"/>
+      <c r="F272" s="38" t="s">
         <v>545</v>
       </c>
       <c r="H272" s="15"/>
@@ -9765,10 +9770,10 @@
       </c>
     </row>
     <row r="273" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C273" s="35"/>
-      <c r="D273" s="37"/>
-      <c r="E273" s="39"/>
-      <c r="F273" s="36"/>
+      <c r="C273" s="39"/>
+      <c r="D273" s="36"/>
+      <c r="E273" s="37"/>
+      <c r="F273" s="38"/>
       <c r="H273" s="15"/>
       <c r="I273" s="15">
         <v>184</v>
@@ -9841,15 +9846,15 @@
       <c r="F277" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="G277" s="38" t="s">
+      <c r="G277" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H277" s="38"/>
-      <c r="I277" s="38"/>
-      <c r="J277" s="38"/>
-      <c r="K277" s="38"/>
-      <c r="L277" s="38"/>
-      <c r="M277" s="38"/>
+      <c r="H277" s="35"/>
+      <c r="I277" s="35"/>
+      <c r="J277" s="35"/>
+      <c r="K277" s="35"/>
+      <c r="L277" s="35"/>
+      <c r="M277" s="35"/>
     </row>
     <row r="278" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D278" s="14" t="s">
@@ -9887,10 +9892,10 @@
       </c>
     </row>
     <row r="280" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D280" s="35" t="s">
+      <c r="D280" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="F280" s="36" t="s">
+      <c r="F280" s="38" t="s">
         <v>559</v>
       </c>
       <c r="H280" s="15"/>
@@ -9907,8 +9912,8 @@
       </c>
     </row>
     <row r="281" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D281" s="35"/>
-      <c r="F281" s="36"/>
+      <c r="D281" s="39"/>
+      <c r="F281" s="38"/>
       <c r="H281" s="15"/>
       <c r="I281" s="15"/>
       <c r="J281" s="15">
@@ -9946,15 +9951,15 @@
       <c r="F283" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="G283" s="37" t="s">
+      <c r="G283" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H283" s="37"/>
-      <c r="I283" s="37"/>
-      <c r="J283" s="37"/>
-      <c r="K283" s="37"/>
-      <c r="L283" s="37"/>
-      <c r="M283" s="37"/>
+      <c r="H283" s="36"/>
+      <c r="I283" s="36"/>
+      <c r="J283" s="36"/>
+      <c r="K283" s="36"/>
+      <c r="L283" s="36"/>
+      <c r="M283" s="36"/>
     </row>
     <row r="284" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E284" s="14" t="s">
@@ -9980,15 +9985,15 @@
       <c r="F285" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="G285" s="38" t="s">
+      <c r="G285" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H285" s="38"/>
-      <c r="I285" s="38"/>
-      <c r="J285" s="38"/>
-      <c r="K285" s="38"/>
-      <c r="L285" s="38"/>
-      <c r="M285" s="38"/>
+      <c r="H285" s="35"/>
+      <c r="I285" s="35"/>
+      <c r="J285" s="35"/>
+      <c r="K285" s="35"/>
+      <c r="L285" s="35"/>
+      <c r="M285" s="35"/>
     </row>
     <row r="286" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E286" s="14" t="s">
@@ -9997,15 +10002,15 @@
       <c r="F286" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="G286" s="38" t="s">
+      <c r="G286" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H286" s="38"/>
-      <c r="I286" s="38"/>
-      <c r="J286" s="38"/>
-      <c r="K286" s="38"/>
-      <c r="L286" s="38"/>
-      <c r="M286" s="38"/>
+      <c r="H286" s="35"/>
+      <c r="I286" s="35"/>
+      <c r="J286" s="35"/>
+      <c r="K286" s="35"/>
+      <c r="L286" s="35"/>
+      <c r="M286" s="35"/>
     </row>
     <row r="287" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E287" s="14" t="s">
@@ -10014,15 +10019,15 @@
       <c r="F287" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="G287" s="38" t="s">
+      <c r="G287" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H287" s="38"/>
-      <c r="I287" s="38"/>
-      <c r="J287" s="38"/>
-      <c r="K287" s="38"/>
-      <c r="L287" s="38"/>
-      <c r="M287" s="38"/>
+      <c r="H287" s="35"/>
+      <c r="I287" s="35"/>
+      <c r="J287" s="35"/>
+      <c r="K287" s="35"/>
+      <c r="L287" s="35"/>
+      <c r="M287" s="35"/>
     </row>
     <row r="288" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E288" s="14" t="s">
@@ -10031,15 +10036,15 @@
       <c r="F288" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="G288" s="38" t="s">
+      <c r="G288" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H288" s="38"/>
-      <c r="I288" s="38"/>
-      <c r="J288" s="38"/>
-      <c r="K288" s="38"/>
-      <c r="L288" s="38"/>
-      <c r="M288" s="38"/>
+      <c r="H288" s="35"/>
+      <c r="I288" s="35"/>
+      <c r="J288" s="35"/>
+      <c r="K288" s="35"/>
+      <c r="L288" s="35"/>
+      <c r="M288" s="35"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E289" s="14" t="s">
@@ -10048,15 +10053,15 @@
       <c r="F289" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="G289" s="38" t="s">
+      <c r="G289" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H289" s="38"/>
-      <c r="I289" s="38"/>
-      <c r="J289" s="38"/>
-      <c r="K289" s="38"/>
-      <c r="L289" s="38"/>
-      <c r="M289" s="38"/>
+      <c r="H289" s="35"/>
+      <c r="I289" s="35"/>
+      <c r="J289" s="35"/>
+      <c r="K289" s="35"/>
+      <c r="L289" s="35"/>
+      <c r="M289" s="35"/>
     </row>
     <row r="290" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D290" s="14" t="s">
@@ -10102,15 +10107,15 @@
       <c r="F292" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G292" s="38" t="s">
+      <c r="G292" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="H292" s="38"/>
-      <c r="I292" s="38"/>
-      <c r="J292" s="38"/>
-      <c r="K292" s="38"/>
-      <c r="L292" s="38"/>
-      <c r="M292" s="38"/>
+      <c r="H292" s="35"/>
+      <c r="I292" s="35"/>
+      <c r="J292" s="35"/>
+      <c r="K292" s="35"/>
+      <c r="L292" s="35"/>
+      <c r="M292" s="35"/>
     </row>
     <row r="293" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E293" s="14" t="s">
@@ -10119,15 +10124,15 @@
       <c r="F293" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="G293" s="39" t="s">
+      <c r="G293" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="H293" s="39"/>
-      <c r="I293" s="39"/>
-      <c r="J293" s="39"/>
-      <c r="K293" s="39"/>
-      <c r="L293" s="39"/>
-      <c r="M293" s="39"/>
+      <c r="H293" s="37"/>
+      <c r="I293" s="37"/>
+      <c r="J293" s="37"/>
+      <c r="K293" s="37"/>
+      <c r="L293" s="37"/>
+      <c r="M293" s="37"/>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D294" s="14" t="s">
@@ -10167,14 +10172,14 @@
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A296" s="39"/>
-      <c r="B296" s="39"/>
-      <c r="C296" s="37" t="s">
+      <c r="A296" s="37"/>
+      <c r="B296" s="37"/>
+      <c r="C296" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="D296" s="37"/>
-      <c r="E296" s="39"/>
-      <c r="F296" s="36" t="s">
+      <c r="D296" s="36"/>
+      <c r="E296" s="37"/>
+      <c r="F296" s="38" t="s">
         <v>587</v>
       </c>
       <c r="H296" s="15"/>
@@ -10190,12 +10195,12 @@
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A297" s="39"/>
-      <c r="B297" s="39"/>
-      <c r="C297" s="37"/>
-      <c r="D297" s="37"/>
-      <c r="E297" s="39"/>
-      <c r="F297" s="36"/>
+      <c r="A297" s="37"/>
+      <c r="B297" s="37"/>
+      <c r="C297" s="36"/>
+      <c r="D297" s="36"/>
+      <c r="E297" s="37"/>
+      <c r="F297" s="38"/>
       <c r="H297" s="15"/>
       <c r="I297" s="15">
         <v>172</v>
@@ -10209,12 +10214,12 @@
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A298" s="39"/>
-      <c r="B298" s="39"/>
-      <c r="C298" s="37"/>
-      <c r="D298" s="37"/>
-      <c r="E298" s="39"/>
-      <c r="F298" s="36"/>
+      <c r="A298" s="37"/>
+      <c r="B298" s="37"/>
+      <c r="C298" s="36"/>
+      <c r="D298" s="36"/>
+      <c r="E298" s="37"/>
+      <c r="F298" s="38"/>
       <c r="H298" s="15"/>
       <c r="I298" s="15">
         <v>183</v>
@@ -10226,12 +10231,12 @@
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A299" s="39"/>
-      <c r="B299" s="39"/>
-      <c r="C299" s="37"/>
-      <c r="D299" s="37"/>
-      <c r="E299" s="39"/>
-      <c r="F299" s="36"/>
+      <c r="A299" s="37"/>
+      <c r="B299" s="37"/>
+      <c r="C299" s="36"/>
+      <c r="D299" s="36"/>
+      <c r="E299" s="37"/>
+      <c r="F299" s="38"/>
       <c r="H299" s="15"/>
       <c r="I299" s="15">
         <v>184</v>
@@ -10320,15 +10325,15 @@
       <c r="F304" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="G304" s="38" t="s">
+      <c r="G304" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H304" s="38"/>
-      <c r="I304" s="38"/>
-      <c r="J304" s="38"/>
-      <c r="K304" s="38"/>
-      <c r="L304" s="38"/>
-      <c r="M304" s="38"/>
+      <c r="H304" s="35"/>
+      <c r="I304" s="35"/>
+      <c r="J304" s="35"/>
+      <c r="K304" s="35"/>
+      <c r="L304" s="35"/>
+      <c r="M304" s="35"/>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E305" s="14" t="s">
@@ -10337,15 +10342,15 @@
       <c r="F305" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="G305" s="38" t="s">
+      <c r="G305" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H305" s="38"/>
-      <c r="I305" s="38"/>
-      <c r="J305" s="38"/>
-      <c r="K305" s="38"/>
-      <c r="L305" s="38"/>
-      <c r="M305" s="38"/>
+      <c r="H305" s="35"/>
+      <c r="I305" s="35"/>
+      <c r="J305" s="35"/>
+      <c r="K305" s="35"/>
+      <c r="L305" s="35"/>
+      <c r="M305" s="35"/>
     </row>
     <row r="306" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E306" s="14" t="s">
@@ -10354,15 +10359,15 @@
       <c r="F306" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="G306" s="38" t="s">
+      <c r="G306" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H306" s="38"/>
-      <c r="I306" s="38"/>
-      <c r="J306" s="38"/>
-      <c r="K306" s="38"/>
-      <c r="L306" s="38"/>
-      <c r="M306" s="38"/>
+      <c r="H306" s="35"/>
+      <c r="I306" s="35"/>
+      <c r="J306" s="35"/>
+      <c r="K306" s="35"/>
+      <c r="L306" s="35"/>
+      <c r="M306" s="35"/>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D307" s="14" t="s">
@@ -10418,14 +10423,14 @@
       </c>
     </row>
     <row r="310" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="39"/>
-      <c r="B310" s="39"/>
-      <c r="C310" s="39"/>
-      <c r="D310" s="39"/>
-      <c r="E310" s="37" t="s">
+      <c r="A310" s="37"/>
+      <c r="B310" s="37"/>
+      <c r="C310" s="37"/>
+      <c r="D310" s="37"/>
+      <c r="E310" s="36" t="s">
         <v>611</v>
       </c>
-      <c r="F310" s="36" t="s">
+      <c r="F310" s="38" t="s">
         <v>612</v>
       </c>
       <c r="H310" s="15"/>
@@ -10438,12 +10443,12 @@
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A311" s="39"/>
-      <c r="B311" s="39"/>
-      <c r="C311" s="39"/>
-      <c r="D311" s="39"/>
-      <c r="E311" s="37"/>
-      <c r="F311" s="36"/>
+      <c r="A311" s="37"/>
+      <c r="B311" s="37"/>
+      <c r="C311" s="37"/>
+      <c r="D311" s="37"/>
+      <c r="E311" s="36"/>
+      <c r="F311" s="38"/>
       <c r="H311" s="15"/>
       <c r="I311" s="15"/>
       <c r="K311" s="3" t="s">
@@ -10460,15 +10465,15 @@
       <c r="F312" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="G312" s="38" t="s">
+      <c r="G312" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H312" s="38"/>
-      <c r="I312" s="38"/>
-      <c r="J312" s="38"/>
-      <c r="K312" s="38"/>
-      <c r="L312" s="38"/>
-      <c r="M312" s="38"/>
+      <c r="H312" s="35"/>
+      <c r="I312" s="35"/>
+      <c r="J312" s="35"/>
+      <c r="K312" s="35"/>
+      <c r="L312" s="35"/>
+      <c r="M312" s="35"/>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E313" s="14" t="s">
@@ -10477,15 +10482,15 @@
       <c r="F313" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="G313" s="38" t="s">
+      <c r="G313" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H313" s="38"/>
-      <c r="I313" s="38"/>
-      <c r="J313" s="38"/>
-      <c r="K313" s="38"/>
-      <c r="L313" s="38"/>
-      <c r="M313" s="38"/>
+      <c r="H313" s="35"/>
+      <c r="I313" s="35"/>
+      <c r="J313" s="35"/>
+      <c r="K313" s="35"/>
+      <c r="L313" s="35"/>
+      <c r="M313" s="35"/>
     </row>
     <row r="314" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D314" s="14" t="s">
@@ -10525,11 +10530,11 @@
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D316" s="35" t="s">
+      <c r="D316" s="39" t="s">
         <v>624</v>
       </c>
-      <c r="E316" s="39"/>
-      <c r="F316" s="36" t="s">
+      <c r="E316" s="37"/>
+      <c r="F316" s="38" t="s">
         <v>904</v>
       </c>
       <c r="H316" s="15"/>
@@ -10546,9 +10551,9 @@
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D317" s="35"/>
-      <c r="E317" s="39"/>
-      <c r="F317" s="36"/>
+      <c r="D317" s="39"/>
+      <c r="E317" s="37"/>
+      <c r="F317" s="38"/>
       <c r="H317" s="15"/>
       <c r="I317" s="15"/>
       <c r="J317" s="15">
@@ -10628,15 +10633,15 @@
       <c r="F321" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="G321" s="37" t="s">
+      <c r="G321" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="H321" s="37"/>
-      <c r="I321" s="37"/>
-      <c r="J321" s="37"/>
-      <c r="K321" s="37"/>
-      <c r="L321" s="37"/>
-      <c r="M321" s="37"/>
+      <c r="H321" s="36"/>
+      <c r="I321" s="36"/>
+      <c r="J321" s="36"/>
+      <c r="K321" s="36"/>
+      <c r="L321" s="36"/>
+      <c r="M321" s="36"/>
     </row>
     <row r="322" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C322" s="6"/>
@@ -10667,15 +10672,15 @@
       <c r="F323" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="G323" s="38" t="s">
+      <c r="G323" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H323" s="38"/>
-      <c r="I323" s="38"/>
-      <c r="J323" s="38"/>
-      <c r="K323" s="38"/>
-      <c r="L323" s="38"/>
-      <c r="M323" s="38"/>
+      <c r="H323" s="35"/>
+      <c r="I323" s="35"/>
+      <c r="J323" s="35"/>
+      <c r="K323" s="35"/>
+      <c r="L323" s="35"/>
+      <c r="M323" s="35"/>
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C324" s="6"/>
@@ -10741,15 +10746,15 @@
       <c r="F327" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="G327" s="38" t="s">
+      <c r="G327" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="H327" s="38"/>
-      <c r="I327" s="38"/>
-      <c r="J327" s="38"/>
-      <c r="K327" s="38"/>
-      <c r="L327" s="38"/>
-      <c r="M327" s="38"/>
+      <c r="H327" s="35"/>
+      <c r="I327" s="35"/>
+      <c r="J327" s="35"/>
+      <c r="K327" s="35"/>
+      <c r="L327" s="35"/>
+      <c r="M327" s="35"/>
     </row>
     <row r="328" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E328" s="14" t="s">
@@ -10758,15 +10763,15 @@
       <c r="F328" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="G328" s="38" t="s">
+      <c r="G328" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H328" s="38"/>
-      <c r="I328" s="38"/>
-      <c r="J328" s="38"/>
-      <c r="K328" s="38"/>
-      <c r="L328" s="38"/>
-      <c r="M328" s="38"/>
+      <c r="H328" s="35"/>
+      <c r="I328" s="35"/>
+      <c r="J328" s="35"/>
+      <c r="K328" s="35"/>
+      <c r="L328" s="35"/>
+      <c r="M328" s="35"/>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B329" s="14" t="s">
@@ -10864,15 +10869,15 @@
       <c r="F334" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="G334" s="38" t="s">
+      <c r="G334" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H334" s="38"/>
-      <c r="I334" s="38"/>
-      <c r="J334" s="38"/>
-      <c r="K334" s="38"/>
-      <c r="L334" s="38"/>
-      <c r="M334" s="38"/>
+      <c r="H334" s="35"/>
+      <c r="I334" s="35"/>
+      <c r="J334" s="35"/>
+      <c r="K334" s="35"/>
+      <c r="L334" s="35"/>
+      <c r="M334" s="35"/>
     </row>
     <row r="335" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E335" s="14" t="s">
@@ -10881,15 +10886,15 @@
       <c r="F335" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="G335" s="38" t="s">
+      <c r="G335" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H335" s="38"/>
-      <c r="I335" s="38"/>
-      <c r="J335" s="38"/>
-      <c r="K335" s="38"/>
-      <c r="L335" s="38"/>
-      <c r="M335" s="38"/>
+      <c r="H335" s="35"/>
+      <c r="I335" s="35"/>
+      <c r="J335" s="35"/>
+      <c r="K335" s="35"/>
+      <c r="L335" s="35"/>
+      <c r="M335" s="35"/>
     </row>
     <row r="336" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="E336" s="14" t="s">
@@ -10898,15 +10903,15 @@
       <c r="F336" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="G336" s="38" t="s">
+      <c r="G336" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H336" s="38"/>
-      <c r="I336" s="38"/>
-      <c r="J336" s="38"/>
-      <c r="K336" s="38"/>
-      <c r="L336" s="38"/>
-      <c r="M336" s="38"/>
+      <c r="H336" s="35"/>
+      <c r="I336" s="35"/>
+      <c r="J336" s="35"/>
+      <c r="K336" s="35"/>
+      <c r="L336" s="35"/>
+      <c r="M336" s="35"/>
     </row>
     <row r="337" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D337" s="14" t="s">
@@ -10967,15 +10972,15 @@
       <c r="F340" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="G340" s="38" t="s">
+      <c r="G340" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H340" s="38"/>
-      <c r="I340" s="38"/>
-      <c r="J340" s="38"/>
-      <c r="K340" s="38"/>
-      <c r="L340" s="38"/>
-      <c r="M340" s="38"/>
+      <c r="H340" s="35"/>
+      <c r="I340" s="35"/>
+      <c r="J340" s="35"/>
+      <c r="K340" s="35"/>
+      <c r="L340" s="35"/>
+      <c r="M340" s="35"/>
     </row>
     <row r="341" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E341" s="14" t="s">
@@ -10984,15 +10989,15 @@
       <c r="F341" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="G341" s="38" t="s">
+      <c r="G341" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H341" s="38"/>
-      <c r="I341" s="38"/>
-      <c r="J341" s="38"/>
-      <c r="K341" s="38"/>
-      <c r="L341" s="38"/>
-      <c r="M341" s="38"/>
+      <c r="H341" s="35"/>
+      <c r="I341" s="35"/>
+      <c r="J341" s="35"/>
+      <c r="K341" s="35"/>
+      <c r="L341" s="35"/>
+      <c r="M341" s="35"/>
     </row>
     <row r="342" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E342" s="14" t="s">
@@ -11001,15 +11006,15 @@
       <c r="F342" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="G342" s="38" t="s">
+      <c r="G342" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H342" s="38"/>
-      <c r="I342" s="38"/>
-      <c r="J342" s="38"/>
-      <c r="K342" s="38"/>
-      <c r="L342" s="38"/>
-      <c r="M342" s="38"/>
+      <c r="H342" s="35"/>
+      <c r="I342" s="35"/>
+      <c r="J342" s="35"/>
+      <c r="K342" s="35"/>
+      <c r="L342" s="35"/>
+      <c r="M342" s="35"/>
     </row>
     <row r="343" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D343" s="14" t="s">
@@ -11018,15 +11023,15 @@
       <c r="F343" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="G343" s="38" t="s">
+      <c r="G343" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="H343" s="38"/>
-      <c r="I343" s="38"/>
-      <c r="J343" s="38"/>
-      <c r="K343" s="38"/>
-      <c r="L343" s="38"/>
-      <c r="M343" s="38"/>
+      <c r="H343" s="35"/>
+      <c r="I343" s="35"/>
+      <c r="J343" s="35"/>
+      <c r="K343" s="35"/>
+      <c r="L343" s="35"/>
+      <c r="M343" s="35"/>
     </row>
     <row r="344" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E344" s="14" t="s">
@@ -11035,15 +11040,15 @@
       <c r="F344" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="G344" s="38" t="s">
+      <c r="G344" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H344" s="38"/>
-      <c r="I344" s="38"/>
-      <c r="J344" s="38"/>
-      <c r="K344" s="38"/>
-      <c r="L344" s="38"/>
-      <c r="M344" s="38"/>
+      <c r="H344" s="35"/>
+      <c r="I344" s="35"/>
+      <c r="J344" s="35"/>
+      <c r="K344" s="35"/>
+      <c r="L344" s="35"/>
+      <c r="M344" s="35"/>
     </row>
     <row r="345" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E345" s="14" t="s">
@@ -11052,15 +11057,15 @@
       <c r="F345" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="G345" s="38" t="s">
+      <c r="G345" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H345" s="38"/>
-      <c r="I345" s="38"/>
-      <c r="J345" s="38"/>
-      <c r="K345" s="38"/>
-      <c r="L345" s="38"/>
-      <c r="M345" s="38"/>
+      <c r="H345" s="35"/>
+      <c r="I345" s="35"/>
+      <c r="J345" s="35"/>
+      <c r="K345" s="35"/>
+      <c r="L345" s="35"/>
+      <c r="M345" s="35"/>
     </row>
     <row r="346" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C346" s="14" t="s">
@@ -11258,15 +11263,15 @@
       <c r="F356" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="G356" s="38" t="s">
+      <c r="G356" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="H356" s="38"/>
-      <c r="I356" s="38"/>
-      <c r="J356" s="38"/>
-      <c r="K356" s="38"/>
-      <c r="L356" s="38"/>
-      <c r="M356" s="38"/>
+      <c r="H356" s="35"/>
+      <c r="I356" s="35"/>
+      <c r="J356" s="35"/>
+      <c r="K356" s="35"/>
+      <c r="L356" s="35"/>
+      <c r="M356" s="35"/>
     </row>
     <row r="357" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C357" s="6"/>
@@ -11277,15 +11282,15 @@
       <c r="F357" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="G357" s="38" t="s">
+      <c r="G357" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H357" s="38"/>
-      <c r="I357" s="38"/>
-      <c r="J357" s="38"/>
-      <c r="K357" s="38"/>
-      <c r="L357" s="38"/>
-      <c r="M357" s="38"/>
+      <c r="H357" s="35"/>
+      <c r="I357" s="35"/>
+      <c r="J357" s="35"/>
+      <c r="K357" s="35"/>
+      <c r="L357" s="35"/>
+      <c r="M357" s="35"/>
     </row>
     <row r="358" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C358" s="6"/>
@@ -11296,15 +11301,15 @@
       <c r="F358" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="G358" s="38" t="s">
+      <c r="G358" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="H358" s="38"/>
-      <c r="I358" s="38"/>
-      <c r="J358" s="38"/>
-      <c r="K358" s="38"/>
-      <c r="L358" s="38"/>
-      <c r="M358" s="38"/>
+      <c r="H358" s="35"/>
+      <c r="I358" s="35"/>
+      <c r="J358" s="35"/>
+      <c r="K358" s="35"/>
+      <c r="L358" s="35"/>
+      <c r="M358" s="35"/>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
@@ -12851,152 +12856,21 @@
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="185">
-    <mergeCell ref="G343:M343"/>
-    <mergeCell ref="G344:M344"/>
-    <mergeCell ref="G345:M345"/>
-    <mergeCell ref="G357:M357"/>
-    <mergeCell ref="G358:M358"/>
-    <mergeCell ref="G356:M356"/>
-    <mergeCell ref="G336:M336"/>
-    <mergeCell ref="G340:M340"/>
-    <mergeCell ref="G341:M341"/>
-    <mergeCell ref="G342:M342"/>
-    <mergeCell ref="G321:M321"/>
-    <mergeCell ref="G323:M323"/>
-    <mergeCell ref="G328:M328"/>
-    <mergeCell ref="G334:M334"/>
-    <mergeCell ref="G335:M335"/>
-    <mergeCell ref="G268:M268"/>
-    <mergeCell ref="G270:M270"/>
-    <mergeCell ref="G271:M271"/>
-    <mergeCell ref="G305:M305"/>
-    <mergeCell ref="G306:M306"/>
-    <mergeCell ref="G312:M312"/>
-    <mergeCell ref="G313:M313"/>
-    <mergeCell ref="G287:M287"/>
-    <mergeCell ref="G288:M288"/>
-    <mergeCell ref="G289:M289"/>
-    <mergeCell ref="G277:M277"/>
-    <mergeCell ref="G283:M283"/>
-    <mergeCell ref="G292:M292"/>
-    <mergeCell ref="G293:M293"/>
-    <mergeCell ref="G285:M285"/>
-    <mergeCell ref="G286:M286"/>
-    <mergeCell ref="G304:M304"/>
-    <mergeCell ref="G192:M192"/>
-    <mergeCell ref="G202:M202"/>
-    <mergeCell ref="G208:M208"/>
-    <mergeCell ref="G209:M209"/>
-    <mergeCell ref="G213:M213"/>
-    <mergeCell ref="G187:M187"/>
-    <mergeCell ref="G188:M188"/>
-    <mergeCell ref="G189:M189"/>
-    <mergeCell ref="G190:M190"/>
-    <mergeCell ref="G191:M191"/>
-    <mergeCell ref="G181:M181"/>
-    <mergeCell ref="G182:M182"/>
-    <mergeCell ref="G183:M183"/>
-    <mergeCell ref="G184:M184"/>
-    <mergeCell ref="G185:M185"/>
-    <mergeCell ref="G173:M173"/>
-    <mergeCell ref="G174:M174"/>
-    <mergeCell ref="G177:M177"/>
-    <mergeCell ref="G178:M178"/>
-    <mergeCell ref="G179:M179"/>
-    <mergeCell ref="G163:M163"/>
-    <mergeCell ref="G164:M164"/>
-    <mergeCell ref="G167:M167"/>
-    <mergeCell ref="G168:M168"/>
-    <mergeCell ref="G169:M169"/>
-    <mergeCell ref="G147:M147"/>
-    <mergeCell ref="G158:M158"/>
-    <mergeCell ref="G159:M159"/>
-    <mergeCell ref="G160:M160"/>
-    <mergeCell ref="G161:M161"/>
-    <mergeCell ref="G140:M140"/>
-    <mergeCell ref="G141:M141"/>
-    <mergeCell ref="G144:M144"/>
-    <mergeCell ref="G146:M146"/>
-    <mergeCell ref="G125:M125"/>
-    <mergeCell ref="G126:M126"/>
-    <mergeCell ref="G127:M127"/>
-    <mergeCell ref="G133:M133"/>
-    <mergeCell ref="G134:M134"/>
-    <mergeCell ref="G145:M145"/>
-    <mergeCell ref="G143:M143"/>
-    <mergeCell ref="G107:M107"/>
-    <mergeCell ref="G114:M114"/>
-    <mergeCell ref="G115:M115"/>
-    <mergeCell ref="G118:M118"/>
-    <mergeCell ref="G120:M120"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="G92:M92"/>
-    <mergeCell ref="G93:M93"/>
-    <mergeCell ref="G102:M102"/>
-    <mergeCell ref="G103:M103"/>
-    <mergeCell ref="G90:M90"/>
-    <mergeCell ref="G85:M85"/>
-    <mergeCell ref="G74:M74"/>
-    <mergeCell ref="G75:M75"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="G65:M65"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="G67:M67"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="C296:C299"/>
-    <mergeCell ref="F316:F317"/>
-    <mergeCell ref="D316:D317"/>
-    <mergeCell ref="E310:E311"/>
-    <mergeCell ref="F310:F311"/>
-    <mergeCell ref="D296:D299"/>
-    <mergeCell ref="E296:E299"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="G59:M59"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F234:F237"/>
-    <mergeCell ref="D234:D237"/>
-    <mergeCell ref="F272:F273"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="F193:F196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="F197:F199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="G219:M219"/>
+    <mergeCell ref="G238:M238"/>
+    <mergeCell ref="A296:A299"/>
+    <mergeCell ref="B296:B299"/>
+    <mergeCell ref="E316:E317"/>
+    <mergeCell ref="G327:M327"/>
+    <mergeCell ref="F280:F281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="F296:F299"/>
+    <mergeCell ref="K263:K264"/>
+    <mergeCell ref="L263:L264"/>
+    <mergeCell ref="M263:M264"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="D310:D311"/>
     <mergeCell ref="E234:E237"/>
     <mergeCell ref="D272:D273"/>
     <mergeCell ref="E272:E273"/>
@@ -13021,21 +12895,152 @@
     <mergeCell ref="G251:M251"/>
     <mergeCell ref="G252:M252"/>
     <mergeCell ref="G231:M231"/>
-    <mergeCell ref="G238:M238"/>
-    <mergeCell ref="A296:A299"/>
-    <mergeCell ref="B296:B299"/>
-    <mergeCell ref="E316:E317"/>
-    <mergeCell ref="G327:M327"/>
-    <mergeCell ref="F280:F281"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="F296:F299"/>
-    <mergeCell ref="K263:K264"/>
-    <mergeCell ref="L263:L264"/>
-    <mergeCell ref="M263:M264"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="F193:F196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="F197:F199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="G219:M219"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C296:C299"/>
+    <mergeCell ref="F316:F317"/>
+    <mergeCell ref="D316:D317"/>
+    <mergeCell ref="E310:E311"/>
+    <mergeCell ref="F310:F311"/>
+    <mergeCell ref="D296:D299"/>
+    <mergeCell ref="E296:E299"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="G59:M59"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="F234:F237"/>
+    <mergeCell ref="D234:D237"/>
+    <mergeCell ref="F272:F273"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="G74:M74"/>
+    <mergeCell ref="G75:M75"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G65:M65"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="G67:M67"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G107:M107"/>
+    <mergeCell ref="G114:M114"/>
+    <mergeCell ref="G115:M115"/>
+    <mergeCell ref="G118:M118"/>
+    <mergeCell ref="G120:M120"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="G92:M92"/>
+    <mergeCell ref="G93:M93"/>
+    <mergeCell ref="G102:M102"/>
+    <mergeCell ref="G103:M103"/>
+    <mergeCell ref="G90:M90"/>
+    <mergeCell ref="G85:M85"/>
+    <mergeCell ref="G140:M140"/>
+    <mergeCell ref="G141:M141"/>
+    <mergeCell ref="G144:M144"/>
+    <mergeCell ref="G146:M146"/>
+    <mergeCell ref="G125:M125"/>
+    <mergeCell ref="G126:M126"/>
+    <mergeCell ref="G127:M127"/>
+    <mergeCell ref="G133:M133"/>
+    <mergeCell ref="G134:M134"/>
+    <mergeCell ref="G145:M145"/>
+    <mergeCell ref="G143:M143"/>
+    <mergeCell ref="G163:M163"/>
+    <mergeCell ref="G164:M164"/>
+    <mergeCell ref="G167:M167"/>
+    <mergeCell ref="G168:M168"/>
+    <mergeCell ref="G169:M169"/>
+    <mergeCell ref="G147:M147"/>
+    <mergeCell ref="G158:M158"/>
+    <mergeCell ref="G159:M159"/>
+    <mergeCell ref="G160:M160"/>
+    <mergeCell ref="G161:M161"/>
+    <mergeCell ref="G181:M181"/>
+    <mergeCell ref="G182:M182"/>
+    <mergeCell ref="G183:M183"/>
+    <mergeCell ref="G184:M184"/>
+    <mergeCell ref="G185:M185"/>
+    <mergeCell ref="G173:M173"/>
+    <mergeCell ref="G174:M174"/>
+    <mergeCell ref="G177:M177"/>
+    <mergeCell ref="G178:M178"/>
+    <mergeCell ref="G179:M179"/>
+    <mergeCell ref="G192:M192"/>
+    <mergeCell ref="G202:M202"/>
+    <mergeCell ref="G208:M208"/>
+    <mergeCell ref="G209:M209"/>
+    <mergeCell ref="G213:M213"/>
+    <mergeCell ref="G187:M187"/>
+    <mergeCell ref="G188:M188"/>
+    <mergeCell ref="G189:M189"/>
+    <mergeCell ref="G190:M190"/>
+    <mergeCell ref="G191:M191"/>
+    <mergeCell ref="G321:M321"/>
+    <mergeCell ref="G323:M323"/>
+    <mergeCell ref="G328:M328"/>
+    <mergeCell ref="G334:M334"/>
+    <mergeCell ref="G335:M335"/>
+    <mergeCell ref="G268:M268"/>
+    <mergeCell ref="G270:M270"/>
+    <mergeCell ref="G271:M271"/>
+    <mergeCell ref="G305:M305"/>
+    <mergeCell ref="G306:M306"/>
+    <mergeCell ref="G312:M312"/>
+    <mergeCell ref="G313:M313"/>
+    <mergeCell ref="G287:M287"/>
+    <mergeCell ref="G288:M288"/>
+    <mergeCell ref="G289:M289"/>
+    <mergeCell ref="G277:M277"/>
+    <mergeCell ref="G283:M283"/>
+    <mergeCell ref="G292:M292"/>
+    <mergeCell ref="G293:M293"/>
+    <mergeCell ref="G285:M285"/>
+    <mergeCell ref="G286:M286"/>
+    <mergeCell ref="G304:M304"/>
+    <mergeCell ref="G343:M343"/>
+    <mergeCell ref="G344:M344"/>
+    <mergeCell ref="G345:M345"/>
+    <mergeCell ref="G357:M357"/>
+    <mergeCell ref="G358:M358"/>
+    <mergeCell ref="G356:M356"/>
+    <mergeCell ref="G336:M336"/>
+    <mergeCell ref="G340:M340"/>
+    <mergeCell ref="G341:M341"/>
+    <mergeCell ref="G342:M342"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
